--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/18_Bitlis_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/18_Bitlis_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A05904-1280-4C2B-B754-74ABB537251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABED10CB-0CE5-4509-89F0-FC34A02B3E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{40D4CAA4-00BC-41CF-8E0B-88B7F720BA3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{BA752539-AE82-4A8F-A6C0-D80BF5C61687}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -955,13 +955,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C594B5CF-BF0D-42F3-A769-1CA1CD98C41B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A1B82F96-4E7C-49D4-BD84-6A46A0D5F27A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6471FD47-21CF-4832-89F7-074B0C903C57}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2860B277-569C-43A7-AD57-C04947CD8A1F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B033C33D-B594-4D4D-BE6C-2FA373510550}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{E4DBE20C-8CDC-4129-AC8E-2CF7346EE5C4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3422BC1F-AAFA-4E8F-94DD-5AF2E6BE2BC1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D8B04518-BAE6-4DCD-BDC3-7D77548982EF}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{60977E2F-B96C-4208-863B-18B0E79541DC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3E61050B-416A-46CA-AFF1-7FDB3510DF9C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{140ABC85-817D-4F24-B9DE-DF2056DCDB83}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4E86D43D-6F21-405B-8432-FE36E2BBE462}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1AA201EF-A6FC-43DE-9E36-92DBD1680EE8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F79BB029-D036-4BA8-89FF-2EC6CBBFE4A3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1331,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5478E4B5-18BA-448A-BE56-CD2875127EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF82D19D-472F-4BD9-83A7-F31E76C017FE}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2609,18 +2609,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03D3427A-8B5E-4649-B175-4B73E6484894}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D7EF288-DCAF-4D41-83CE-601F9AAEC4F5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71D80B6A-9389-49AA-A11E-7ECAB394477D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C9F76AE-7D2E-410A-8CFD-4DD9CD8247F7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5258CB3B-CBF0-463A-A5DD-30D02BF40397}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36B05821-6B70-4450-8284-A386198293B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F184B30B-B67B-43AB-801F-888B98D16364}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B3BA6176-3C29-4361-8D40-07205E12D450}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0423E78B-9CE8-413D-A2AB-CF4D991EA7C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0FE1D21-3308-47B2-8585-8123650D75BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3DD1864-A1CE-4FDD-BCEE-E8EC663D4422}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B94EC06B-C4E6-42C4-83C8-A285C2C3A10B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6950A5A8-D6C5-400F-8E6D-5CB20DD5CAC5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{364A741B-7DD1-4620-BA0B-082D95A59036}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{58F25BFA-3FA1-4448-B3A0-5F580B4638E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2BC869BD-AFB5-4F41-93CD-E0FC9FEAEB17}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A8AE1719-4566-4AA9-8633-6143712F1BD1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D573B9C-28E0-4ACA-9597-3B9F64E555C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FB3719D-0AB1-4EEE-A61A-BEC4E4F271D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E58CC0FA-E9D3-4185-912B-406BE54E44CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D5074B1-4DD6-4CDA-8CA1-90DC9CC102F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74DCAFAF-05EB-4F40-A5AC-DC0FE339EC1D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21DD2921-7D9B-49A1-8850-7EB4D1BA1ABC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CF3164A-97C9-4CBB-9E1C-DF2319121E88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2633,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33221AE-986F-4C01-99A3-739C70DE71CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8710507-AB21-44A1-A776-B51BDD06C340}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3888,18 +3888,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7558E3F-EE47-4C17-B039-F936E828D3EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{977CDC0E-EA88-496A-AC75-C5A0770BE5B9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B4EE4C3B-0404-4BF5-8531-6AFD8EF9192C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7963818F-601D-4FA1-9D64-9B4F9176EE07}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D29959E9-1CD5-4009-91EE-CC6BC53FB0C9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55252EF6-15D7-46F0-AF9A-1F454D795F3A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD4C3967-7295-49C5-AAFF-6DB15AB6EEFE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A741FEF-02B8-42BA-B06B-64CCDD3E0CFC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36817CB6-044C-4CCF-AD91-44EE9C8D4599}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AB8CA34-6B45-4E9E-8B2D-47292D33A7C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5580D63-E7CF-404C-96F5-7BE17A9A79E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C494D680-6DDA-4691-8EF7-77850BAF7DE7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C8386ED-7374-4E4B-BC06-79A2F874694F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71136D8D-F6E8-414F-BDDA-951AF24632CD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E6951D14-132A-45AA-A201-C42F9787E92B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F1F4D17-C48B-469A-9693-73787B68A89C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F1A612D3-13BB-4EB1-BA42-F7EC271E03D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FD7AED9-EB96-40A9-A686-EE37BDF6E285}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0EC0CD5-4D12-4647-91BA-6A1FA2B31335}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64C69291-1560-47A8-A8FA-DB51637AF4B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51242C4D-045A-4E68-AEE4-61AE91AD1D8A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF1DDEA7-CDD9-4745-9D97-1EAAFC8353BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CCCE54C-3B5C-4CBC-B770-CFCACBE9AB13}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B508A631-BB01-40EE-B0B7-99B00167CCB2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3912,7 +3912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7410DD5B-9281-4019-8326-51BCFAA5BB2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B169A0C7-6868-4EDD-8111-2517B573ABDF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5169,18 +5169,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AEE9405-39DD-4DA5-92B8-077FC3C39C4E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A35C79A1-51CB-4BBB-8140-76FF4ADE398A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8BA7895-B3C2-47FF-9586-7789FF73867C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2164225-A435-40FD-A929-76B8945F4946}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{696B0C9D-B674-4D96-8EF7-4D39F1159204}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B70B7093-6529-4D85-8295-0F7A4CFD33BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82899159-BAFF-4B0F-8012-8EF7A0E86E9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3C2349E-3373-4C18-B584-D8677DB8F6DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A88D8BF-3067-43D4-A796-C3D019E805B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D58416F4-186E-4666-9657-C85F098BDD1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5041B89-8DE1-4943-AD02-8897A50DAA02}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03C6C3B8-F181-4363-BFFA-50FAD25C93BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7DF68651-BD2C-4ECE-ACE4-D6A4109426E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13DE6027-7014-43F6-A4A8-AB129A181108}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3D945812-EC5E-4F79-B68D-180928F9E3CF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A2C51BE-A619-4D86-ACDE-26253DBAF84E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3B80FCE9-67B2-4F08-B691-A4C0E2CDED9E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4428B710-D447-406C-BD73-BAE0CEC22A15}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45D23B22-745F-455A-B923-D900C542AD33}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{926EAC81-738C-444D-B7A3-EADBA2C8F259}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{965A43F7-26A7-4BE1-B925-7CD38421EB74}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB05A8E9-28BF-496D-875E-2A07FB8354D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3DDE4D3-0D51-496F-B744-78CBB901435D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3DEFBC4-E0C2-4337-9FF0-88712C014C0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5193,7 +5193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8215E3DE-4109-40CF-AC45-F1604928C2DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8619E5F6-E30C-4C8C-9521-F7B6F8E94CF7}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6423,18 +6423,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61528ACF-E411-4023-A5F8-BA8B1ECB9072}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{887D65CA-3355-4E0C-878B-F040CFD46A27}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D614FD8E-A180-4B80-8D91-2FE23F78E082}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19F9CEEF-4E44-4920-9BBC-A4FDB583792A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{821C1639-DA63-47A9-9741-7EBD5F7A8CBA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{960B1E83-87EF-4312-B517-DF458C90CB3C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC3C5996-739D-4CF0-8DED-7BDBF8283FAC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C5AAA0D-59AA-4113-A958-33593FC32659}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D7D5C1C-8BB7-4F3B-8FD9-446C7D5043B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20492C4E-03F1-4583-8753-0F525C37CDB5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10041DD2-57C7-4464-8997-DDBA04EA0A5C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{484FD235-73D5-4965-B14A-120125DCEED5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF5EE314-53BF-46E3-934B-ACDBC4F0F742}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F571F21D-66E8-4DBB-85A4-6F9592C899C2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{79182CE9-B20D-49CB-B0AC-8DF08914436A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26A73958-EF16-432D-A65D-247F35E66042}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{76D442F2-EAB9-4487-9671-0ABA61E49EC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBBB1135-D3FC-47EE-9693-09FE3F989165}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF748F77-273A-413C-B86E-56005434BAF3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D9B2D2E4-E0D1-4E4E-8C9C-4E6BD591CB61}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{657EED6C-E373-48A2-86DE-AD5D169A85A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3985CAD5-D150-4A39-B3A9-B4EBF29152F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98DA19B6-702F-4BF6-A1C3-29343D53DC52}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{006ACE97-1E6C-4602-A048-ECCEF52A099C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6447,7 +6447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F8F9D8-06C0-45BC-A05C-B3DAC41E9832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C63933D-DF99-45DB-B3A3-AC5720359CE8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7716,18 +7716,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CF911AB-3E3E-4085-8C59-2D6D4CAD8ED4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D0213C1-4C57-4E5D-BA26-0EF86A3EA560}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82E01299-DE91-4438-BDA6-F7D33EBF7762}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B2E5B162-0F1E-48A5-B6A0-6F48675E86FA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{15C03309-ED3C-4CAA-ABF4-17443B9B3CB0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6DF1D0B-2F83-484A-8C58-4F0D0F54D731}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15FF6378-E710-440E-BBA8-A6AF483F9CB3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F7DDB04-849B-4711-AE90-C340381E8028}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{127E853E-37FF-46B9-8058-2FFB059192D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82E2F517-E02B-4965-8CBF-705ED1545C4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{797EDE3F-5AF9-4234-A7D5-D05C203598AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0ABD46B-18F6-499D-A16C-61FED954F21B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31D6738A-C833-424B-A5A8-DA897D8E502C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5FF3CE0-FC3A-4D1B-8DEB-9F4EC91FA15C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11A68574-B0FE-4E37-B554-89AFB7AD3CCB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1EFC5941-5847-4F67-AF8F-167143480E4C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5D4D2D39-FEFC-4727-906B-FE2B8E55E4CB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03C1A591-16C1-40FE-AD1F-0563C53EF045}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FCCEC80-EB4A-4C42-A59C-0326B58660C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4EFFE43C-8B93-499B-9D59-23E433F45EF0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E3E7357-E86D-4B2A-8D26-5EF6F8F7F318}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B9B011A-781E-420D-A308-DEE1C37152BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5502AE9D-FD2A-4839-AA67-C90DE7C1B53C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2505A2F9-C91D-4B1C-870F-952ED7A14DA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7740,7 +7740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E1CCB1-5986-4E3F-814E-F96E4DD9511C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B686C0-734C-4AA3-9C74-E59F2C9F8E03}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9009,18 +9009,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C0A6819-7242-4E95-9AE1-7B56001F809F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54AD1BE5-210F-4DB7-8145-620D24D07F51}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9FB3751F-8BD8-495C-86AE-8932AA6594BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B84DD7AA-3396-475A-BD55-9E79E767EAC2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{72B1ACF5-5A6B-48E9-A1BA-4872248E9D2D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95373C1F-2B8B-42EB-BC39-8166D2767778}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E161F0C-BDBC-4B23-8197-1D3F1975B1C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90971F76-4A52-4EF8-8144-D2CEDCFD38FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84EB046D-C362-4B4B-882B-1EE5F6F6DB22}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D07017F2-5922-4845-B9D2-4C41CC00D8C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8FF75A6-FDF1-41DB-913B-06E387091449}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4C9E3EB-8F92-4BAF-8694-8737AE6E44F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02EA5DE8-245C-409F-A4D3-3F184B4E06C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4C4C30F-4786-40CB-B68C-7008268EC1A7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B346F34D-800F-4D7E-A36B-B765842AE8D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{994A7547-CD9A-4CE8-B70B-7FE2F662ACD6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F35F3CD9-F27D-47A5-AD7E-A9963F371570}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55A8E3DE-7E6D-4AFF-9227-0FAF51D6BC54}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8FE894E-31E7-4886-A444-35A235004C03}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3CDBEE98-219E-452B-B29A-C68383E9B00B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5996DDD-8398-4999-87BC-3516A945A07D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D91047D-1422-436F-BA4B-868A0ECA1039}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F1C2125-2108-46BF-B27E-EAE30C041FE3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C463C91F-DCDF-41F5-B1B4-C2F13545A5E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9033,7 +9033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FDB068-FC93-43B5-A069-766C8C9BEEE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196744F-A802-4693-A4A8-9C9C1B0D434E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10304,18 +10304,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BE5FBBE-FC3C-4FF9-9197-C080C1A701C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B58FB016-F1C6-4DE5-9AE0-E811CF4CBC27}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DD6BE020-37C0-4759-8432-AE34D9ACEA10}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95993F64-2FC9-4CED-AC52-57F08D80CBFE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1DDA2145-4262-43CF-A4D4-2E103EB06BDC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72FF385F-19C3-45DB-B01E-5781B0FB917E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9528DE1E-B705-492B-AC8D-AE40D2BE908F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2D194211-CBA4-41E2-ABC4-1675A3DE6DBE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C13CECA-C12E-48F0-95FA-D043DF3FA88D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DEF08BCF-607C-4474-AE8C-611D480CA138}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B42F189B-8844-4613-82FB-6C568B9C782F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE5F2F17-0E6E-474F-97C1-418BD31D73F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D53DE9B-5BBB-442E-9553-ECB670FAD6C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4782B15E-6D0C-482C-A9BB-49A762A792B8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F071C492-7151-4128-9CCA-DB5328EE1D6A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA7F4ABE-BA08-44DE-91D6-F22A9B575D50}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{60D87EEF-0DD0-4445-B113-FD12DB2EA1E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B72EA4A-EDE6-42E2-A4F7-21DA46CD19BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9393C025-3735-4F7D-B0AA-0F0E56F2FF67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{500C40A9-3372-49C6-B6DB-3DF1C0D0A271}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4244351-A1C4-42E5-B17D-B489EA14C423}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F08781F7-2CAC-4E2D-8C87-B9D22B3FE97D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{683E2348-BA8F-4FEA-AEB7-E43F093358A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C495AFF3-DC40-4B48-94F0-B6CF00595EDA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10328,7 +10328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CCE7F7-3E60-423F-93C9-2272DAB1D995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9190DB4-664B-48AD-9CC5-C604206664EC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11599,18 +11599,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23C04942-AD0B-4300-838A-DCACEA1C1B33}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A645C71-98FC-4547-B185-FDDFE52DB518}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC736916-C1E1-4972-A2D4-66C9FFBC1D9C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1FFC9211-A765-4A06-9131-ACB78FE96715}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{58A05EC2-5384-4E15-8FDA-B225F509F527}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03E8549C-FEB8-4C20-B2D7-B4C2142750A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20111D81-B143-4DF0-A83B-7AA403986AB7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E95A35BB-A99E-4F56-A7E6-18B8A1C45386}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{133A09C7-CD9A-47AA-82BD-7B2DA4B55D0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA946A83-084C-45BC-AAE8-06A85A7EDA0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A9C3926-ADC6-4E51-B257-A33D69F6EA44}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69C384A9-180B-4B88-B89C-BAC005CA077F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{458972D0-7C98-4063-994D-C954E889F6B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F32942E-6076-415B-A023-D511781460BC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA7EC7CB-5194-4364-A407-E2C50A65F018}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4F24AA8D-E2B4-4C3E-95F8-56419504067E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5008799F-9887-40F7-B780-16C515B6E981}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{760BCB64-C994-4B13-902B-58546549E987}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CCE7B15-3871-4B6B-BED1-9EEF06FE8EDA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{026BD9CF-98C5-4F8E-B2D3-4254968187D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE233174-AC99-4435-BECE-14A0E15FF80A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79F7E5A6-41A6-4089-B9BB-C0F3E5A35845}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{616CE704-16E9-40CD-A777-F893EA468CD5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37083414-20B5-4584-AFF4-E301EF6ABBD3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11623,7 +11623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2172B3-6258-4230-8624-69FBFEC21860}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E71CADA-F295-45EB-B1E8-CFAED3C84117}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12894,18 +12894,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E957E291-1528-4B5B-B190-97FFE0972B39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{234778AF-6E08-4A5F-BC05-B165CC9B4096}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77BA36EC-5A52-4278-9689-E24F403F9B3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B372C162-B9C7-4A30-BE01-80C26DF3760D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{778017BC-8412-4D2C-8B12-24EC7961ED85}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FB21187-6528-4FCD-937D-93A028E1D7F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{209ACC23-0254-416D-AB85-4170DB75A36D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F1E75B5-BABD-49CA-9C73-02122FCF1DF0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13964847-004E-4377-B13F-083932AC202D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03B983BC-1FB1-408A-BE88-2FEA83804939}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2020C4D-BFF4-4129-85E9-F27E2945A58D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83060461-F25D-4763-92F4-0A975B032B01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8A03DEB-54E4-4D5A-8462-70E6DED5AC84}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C8B5C73-5BB4-4BD7-8AF5-37CD13EB1578}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2AE75D7D-4A0B-4172-9766-DA35DC655585}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8BFEED2-EDF0-4EF9-9F96-DE17F03CC254}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CC1DB8C3-B8CC-4428-A95F-CFB942867250}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B6FC3E3-35FE-4650-B342-1DAEC764D320}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DB1C898-6026-43D9-AF55-E39D2A7C2442}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF58E9AB-F8BF-4B48-88F0-CD97DAFD50BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{286D7BEE-8B86-403D-9C94-4311717027A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A5458C6-A93B-49C5-BF67-80AEE9229D67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{943B2A61-E351-4360-A5BA-8A0C7E02ABD9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B4FCCE1-7DD6-49E5-9DDF-A42CED24F251}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12918,7 +12918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94F0EE8-13C0-4B8E-9A73-ED34F58A75F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD3D0C3-FF0B-409B-B431-FE2CBE066D84}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14187,18 +14187,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51937303-45BE-4AA7-873C-AB89D7359DE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0BB832F-8D6E-4B76-A7D8-997A3E0BE59F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2FF4DC43-51DE-4C23-B9BB-A9BEAD413536}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55E36BF1-A5BD-4959-B8EA-4583042D39AF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B67DD1FA-C3C7-4A89-A481-D533F2D6E6EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB1AF3D9-FDD2-401F-960C-0A1CBFF7EDF3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16BCBAB2-3AF5-443A-8B78-2F8E39A0A706}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7FDB5AED-3D42-4DDF-BD5D-4ADDA07376CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F34B6257-97EB-4410-96F7-7A2CE6B1BE16}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BAFF819F-830D-4359-9705-04ECB4AB91E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F32939D-953A-47B2-9F0C-C974C52EC75C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04E78E36-032D-4383-92A8-3F0D6EAD7493}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFE3BF8D-FF03-4A39-895C-01061C488BD4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D311B938-7256-45C6-A46B-2C2B6EF1374C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1082935A-8C8E-4CE4-984C-FEC30E5B3674}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EDD3B3E9-4457-47B8-90F5-CF3C9CA03354}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{26F751A4-D227-4AE2-A2E6-5677FE42A43C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F07ACDE-625F-486C-BD77-E97EA95CED51}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F3FC152-F9F3-4C39-9010-D94C3DCA8025}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE840B81-13F2-4F6B-AE48-2D6086AC5C0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B2830A9-CA91-44F5-99FF-4A43D4721845}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8917F088-F300-4A53-BD7C-D087827CA9A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A31C64FC-A307-4327-B861-25D01375FC4C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6AA3D3F7-E82A-482F-904B-2C5E576362C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14211,7 +14211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06305F68-0E66-4416-B4B5-7FD5468A41CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF5BBF-104F-4BED-8157-093C09621294}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15484,18 +15484,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E947E24-CBDD-4642-A8C9-7111EC1CA9A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FBD34F5-AFAA-469B-80EF-AE2FA2E6F745}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7D92BA1-4C1B-43E4-ACDC-2B2136B48FC8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B67C4AAA-61CB-4631-B01A-EFC5C543523A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CBDA24E2-7BF4-4D93-944D-4E80C9F87CD1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF3553AE-153A-4D39-A674-E79F6610A118}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{145D0A38-DC36-41CB-8BB2-E1D972F11E87}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A69265C2-D36E-4C88-A5BE-CDE05B8F8323}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{500D6A8B-6CEC-4B31-8A50-50E65DCD6CA9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC0C46D8-40D5-4BC2-8361-370D1406C3C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0DC0E3E-45CF-4649-B067-9FED65391815}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A07F43B-56AB-4D20-BAE3-40D344B61A8F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6140D365-8319-48E6-9309-B48830BFA956}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{189438A3-074E-4E09-9AFA-56414705B1A6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7A000B45-0A82-4201-B4DA-F60129F669BD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66FD0B15-34E5-48BA-9B51-1CF34210DAB3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BE967F90-5EA3-4B94-9542-AEC6E501E0D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40E52111-C4F2-4447-8490-7A7F48AE83F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C396A487-135B-41BC-9824-44953F0872CF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{88CA5093-64AA-42A7-8F62-13F89916F174}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C8CEB44-0883-436E-AA51-410BFCEFA87F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4F37F904-E3FE-4C02-82D1-EC71638910FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B78638B-E9A1-4B51-8A4E-F29716D50F87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14A0FB1A-A374-4ECF-B702-BED0A2E13498}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15508,7 +15508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28863BE7-67C3-4DC7-B070-5227028951D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92978CE-6D91-42B5-B4A7-786821319443}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16777,18 +16777,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB9CCF52-C35D-4318-A59B-C71A2E891093}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE471D83-E70D-47A8-85A4-9628BFF6C555}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DBDB0974-EFDB-428D-B203-A2F853915A4E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC29C528-5569-437A-877B-22B3F9507FCD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B19C85C6-F71E-4996-ABDC-FF4EAA053E61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E4853A7-265B-410D-9ACA-F8EED56327FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AEE8A325-1A68-4524-BAEB-A71590B86478}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63F4650D-B647-4361-B751-9CD16E4DA7DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A31023AE-9D9C-45FD-BDAA-729C5A7C24A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A8E9AAA-EA53-4B02-911E-6F4A185236A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F63A4B03-7FCA-4CBF-A4E0-78600B6244E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE800222-A7E4-4AE2-866B-F7E29D92A3FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71800EC0-157E-4215-854A-F8A2508BC1EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{240B735C-72CC-412F-A0EE-DEA8E881F25A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3F2C9ECC-A5BB-4949-A586-1C3461076C0D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{272E9F2C-7D8F-4B04-BDD3-0B46F3FE939A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7739A9B4-93E2-4A63-9E69-27781EAF4296}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8BB4F117-D184-442F-A90F-95A67024A469}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A51A59C-0F3A-4488-B629-E115831725E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C16D0959-09CE-4333-9D10-0930C95A4BA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC9893BE-4D9F-4A6A-BC75-7B1F04C82940}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6A28770-3ABE-40F2-AA81-3FDB96EE6543}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC1FF0A7-84D3-4BEB-8067-C9162CA978FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CDC34653-C40F-45CF-9E23-525CC7FCAC93}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
